--- a/500all/speech_level/speeches_CHRG-114hhrg93886.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93886.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,48 +52,30 @@
     <t>400630</t>
   </si>
   <si>
-    <t>Daniel Lipinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Madam Chairwoman, and welcome to our distinguished panel here today.    I am pleased we are having this hearing to review the Fiscal Year 2016 budget proposals for the National Science Foundation and the National Institute for--of Standards and Technology.    There is a lot to cover when we discuss these two critical agencies, and I believe that we would have been better able to examine these budgets with two separate hearings but I am hopeful that we can give a thoughtful and thorough consideration here today.    As many of you know, I have said many times from when I first came here ten years ago how NSF and the role that this Committee plays in overseeing NSF is one of the big reasons I wanted to serve on this Committee when I got to Congress, and I want to thank both NSF and NIST for the great work that you are doing.    The National Science Foundation is the only agency in our government that supports fundamental research across all fields of science and engineering. NSF has always been the primary source of federal support in a variety of fields, including the social and economic sciences. As other agencies such as DARPA and NIH have increasingly shifted to a more mission-focused and translational research, NSF has become the primary source of support for many more fields.    $7 billion sounds like a lot of money and of course it is. However, given the breadth and depth of our nation's scientific talent and their capacity to transform the world through scientific and technological breakthroughs, $7 billion still leaves a lot of excellent ideas on the cutting room floor. NSF is requesting a 5.2 percent increase in its budget for Fiscal Year 2016, which I believe is fully justified and I am going to strongly support.    I would like to highlight a couple of items in the NSF request. I am pleased to see the increase for the very successful Innovation Corps, also known as the I-Corps program. If my newer colleagues are unfamiliar with I-Corps, I urge them to get a briefing from NSF.    Being from Chicago, I am also interested in the INFEWS Initiative and the positive impacts research in that area could have on water quality in the Great Lakes.    Today, we are also looking at the budget request for NIST, the most important, least-known agency in our government, which has a budget of less than $900 million. NIST has always been the world's premier measurement science and standards organization. In recent years, policymakers in Congress and the White House have called on NIST to take on leadership roles in an increasing number of critical areas, including cybersecurity, disaster resilience, forensic science, and advanced manufacturing. On the one hand it is a great compliment to NIST that we entrust them with these responsibilities and they continue to live up to our expectations. On the other hand, many of these responsibilities have been making it difficult for the agency to carry out its mission.    NIST is requesting a 30 percent increase but over a relatively small base. I fully support NIST's request in light of all the increased responsibilities.    I hope that all my colleagues will join me in urging full funding for NIST laboratories and construction budget. NIST infrastructure is 40 to 50 years old and much of it is crumbling. As they face the same wave of retirements that many of our agencies face, NIST is struggling to attract top new talent. If we do not fully fund this agency, we may be compromising its ability to remain the world's leader in measurement science and standards development. This would be a heavy blow to our economic growth and security given the importance of NIST's work.    Before I close, I want to say a few words about legislation I expect will come before this Committee soon in regards to reauthorizing both of these agencies. Last year, the agencies were not given the opportunity to testify on the reauthorizing legislation before we marked it up. I am sure there will be some questions from both sides today that will be relevant to any new reauthorization bill, but it is important to allow these agencies to testify again once legislation has been introduced. This will allow our Subcommittee and full Committee to better understand the impact of any proposals for consequential policy changes.    I look forward to this morning's testimony and discussion and I yield back.</t>
   </si>
   <si>
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Madam Chair, and let me observe and state the obvious at the beginning that we have an excellent panel with us today and we look forward to hearing from them shortly.    The National Science Foundation and the National Institute of Standards and Technology support fundamental scientific research that is critical to American innovation and competitiveness. Our challenge is to set funding priorities that ensure America remains first in the global marketplace of ideas and products, without misusing the American people's hard-earned tax dollars.    For example, why does the Administration increase funding for the Social, Behavioral and Economic Science Directorate by over seven percent while proposing an average of less than four percent for the Biology, Computer Science, Engineering and Mathematical and Physical Science Directorates?    But I do want to emphasize and mention and applaud the steps taken by NSF to improve transparency and accountability. NSF's new policy acknowledges the need for NSF to communicate clearly and in nontechnical terms when the agency describes the research projects it funds. The new policy also emphasizes that the title and abstract for each funded grant should act as the public justification for NSF funding. It should explain how the project serves the national interest and is consistent with the NSF mission, as set forth in the 1950 legislation that created the Foundation. And I understand Dr. Cordova presented this at the November National Science Board meeting and received positive comments.    It appears the new NSF policy parallels a significant provision of the FIRST Act approved by this Committee last fall, a requirement that NSF publish a justification for each funded grant that sets forth the project's scientific merit and national interest. The reference to the 1950 original enabling legislation and its NSF mission statement is consistent with the FIRST Act, too.    NIST does valuable, important work as well, which includes maintaining industrial and technical standards and managing cybersecurity guidelines for federal agencies. But the proposed 30 percent increase in the NIST budget for next year is unrealistic.    Although there are a number of areas proposed for very large increases, the $150 million for the National Network of Manufacturing Innovation program is of particular concern. Last year, with strong bipartisan support, this Committee, the full House, and the Senate approved H.R. 2996, the Revitalize American Manufacturing Innovation Act, or RAMI. This bill authorized about $5 million per year for NNMI from NIST with the bulk of the program funding to be transferred from the Office of Energy Efficiency and Renewable Energy budget at the Energy Department's Office of Science. I don't know why the Administration is ignoring the duly enacted RAMI Act.    Other than that, I look forward to hearing from our witnesses today on the subject that I mentioned above and yield back.</t>
   </si>
   <si>
     <t>400204</t>
   </si>
   <si>
-    <t>Eddie Bernice Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much, Madam Chairwoman, for holding this important hearing, and I welcome the National Science Foundation and the National Institute of Standards and Technology witnesses here. Both are agencies that are central to the federal role in advancing science, promoting innovation, and creating a more prosperous nation.    I look forward to hearing from the distinguished witnesses before us this morning. I only wish they could each have had in their own hearing because there are so many important topics to discuss for each of the agencies.    I am pleased with the budget request for both NSF and NIST. I hope Congress will have the wisdom to fully fund both requests. There are many worthy programs across the government and we cannot fund everything. However, I believe that funding science and innovation should be an easy choice, for this is about our future, and even more important, it is about our children's future.    That said, there are a few programs in the budget request that I would like to highlight. First, I am pleased to see NIST and NSF's increased investments in engineered biology. Many of the experts believe that biology will be the driver of economic prosperity in the 21st century, as physics was in the 20th century. Mr. Sensenbrenner joined me in introducing the Engineering Biology Act of 2015, which would create a framework for coordinated federal initiative in engineering biology. I hope we have the opportunity to move the bill this Congress.    Next, I am happy to see NIST leadership in the area of forensic science and standards. The partnership between NIST and the Department of Justice must continue to recognize NIST's critical role in developing technical standards for forensic evidence. The justice system must be just for all, including the wrongfully accused. I would be reintroducing my Forensic Science and Standards Act soon and I welcome my colleagues to cosponsor the legislation with me.    Also, while public access is not addressed in the budget request directly, it is a timely issue. I am pleased to see that several agencies, including NIST, have released their public access plans for federally funded research, a process that this Committee started back in the year 2009. Dr. Cordova, I understand you will still be negotiating with OSTP on your plan and I encourage you to resolve that as soon as possible.    Let me conclude with a few words about the debates in this Committee regarding our support for different fields of science and for merit review. We all have beliefs we would hold very strongly whether or not there is evidence to support them. Some of my colleagues believe very strongly that some fields of science are less valuable than other fields and that some grants are less worthy than other brands. Personally, I do not presume to have the expertise to make that determination. I trust the merit review process, and I trust NSF to make those decisions. The experts before us today will have an opportunity to educate us as to why we must invest in all STEM fields, and why it is so important to keep the merit review process free from political review. I just hope that all of my colleagues truly listen and consider what our witnesses have to say.    I very much look forward to the testimony, and with that, yield back. Thank you.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Cordova</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Cordova. Chairman Smith, Ranking Member Johnson, Madam Chairwoman, Ranking Member Lipinski, and Members, I am very pleased to be with you today to present the National Science Foundation's Fiscal Year 2016 budget request.    I would like to begin my remarks with three short stories about breakthroughs in NSF-funded science in 2014. Dr. Danielle Bassett of the University of Pennsylvania was awarded a MacArthur Fellowship, often called the ``genius grant,'' for her NSF-sponsored work on how different regions of the brain interact. She uses MRI technology and computer algorithms in her research, which may ultimately lead to what she calls ``personalized therapeutics for rehabilitation and treatment of brain injury and psychiatric disorders.'' Her work may have application to Alzheimer's, schizophrenia, autism, epilepsy, and Parkinson's disease.    Dr. Perena Gouma, material science research at SUNY Stony Brook, has created a novel nanogrid that when activated by sunlight can break down oil from a spill. She was the first scientist to receive an I-Corps grant and has started a company based on patents from this original research.    Dr. Jennifer Doudna of UC Berkeley was awarded a Breakthrough Prize by leading technology companies. Her inspiration, she says, was her father, a literature professor who introduced her to cryptograms. Today, she has decrypted bacterial immunity, and with that discovery enabled the development of a precision genome editing tool, which could be used to treat diseases like cancer and AIDS, as well as hereditary disorders. At a recent session where I joined her to talk about future breakthroughs, she spoke of her experiences with K through 12 students. There is a scientist in every child, she said.    These young women scientists and their game-changing discoveries were all funded by NSF. They were all drawn into science by family, friends, or teachers at a young age. Their research is truly innovative and interdisciplinary and shows a commitment to the STEM workforce.    NSF has a long history of funding research that leads to breakthroughs in science and engineering. These breakthroughs excite the next generation and generate promise for the future. NSF has funded 214 Nobel Prize winners, including the most recent winners, W.E. Moerner in chemistry and Jean Tirole in economics.    This past year, the NSF-funded supercomputer called Stampede at UT Austin has been used to explore a new method of DNA sequencing, which could make getting one's genome affordable. The new telescope in Chile called ALMA produced an iconic image of a proto-solar system forming around a relatively nearby star in our galaxy. This telescope is managed by the National Radio Astronomy Observatory located in Virginia.    In addition, the NSF-funded Blue Waters supercomputer at the University of Illinois Urbana-Champaign is being used by researchers from the Mayo Clinic to understand gene expression in the brain with an eye to better understanding Alzheimer's disease.    How do these stories and examples inform NSF's future investments? In Fiscal Year 2016 NSF proposes to uphold the essential approach that it has pursued for more than 60 years, to invest in discovery research and education in science and engineering, and by doing so, to address complex challenges facing the Nation for our Nation.    In Fiscal Year 2016 there are four NSF-wide investments that address issues of major scientific national and societal importance. The first focus is on understanding the brain and it will offer novel insights into how cognitive abilities develop and can be maintained and improved throughout people's lives. The second is focused on the discovery science needed to understand the complicated and interconnected food-energy-water nexus. The third area of emphasis in 2016 is risk and resilience. It focuses on the advances needed to address pressing challenges associated with extreme events and how we can be prepared for them. The fourth is to develop an integrated national effort to increase the participation of young people who have been traditionally underserved and/or underrepresented in the STEM enterprise.    What we are presenting today is therefore a robust investment in discovery. The total budget request is for $7.7 billion, a 5.2 percent increase above the current level. This request builds on the foundation strength in funding breakthroughs and discoveries across a broad range of fields and in educating the STEM workforce.    My written remarks provide additional detail on these investments.    Most of all, it continues NSF's tradition of funding great ideas and growing great talent and ensures that NSF remains the place where discoveries began.    Thank you very much, Madam Chairwoman and Members of the Subcommittee. Thank you for your support of the National Science Foundation. I look forward to working with you as together we advance science in the national interest.</t>
   </si>
   <si>
-    <t>Arvizu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Arvizu. Thank you.    Full Committee Chair, Chairman Smith, Ranking Member Johnson, Subcommittee Chairwoman Comstock, and Ranking Member Lipinski, and Members of the Subcommittee, I appreciate this opportunity to speak with you today in support of the National Science Foundation's fiscal 2016 budget request.    I am Dan Arvizu, the Chairman of the Science Board, and in my day job I am the Director and the Chief Executive at the Department of Energy's National Renewable Energy Laboratory. The National Science Board, as you know, is the governing board of the National Science Foundation and an independent advisor to both Congress and the President.    To begin, I would like to take a few moments to comment on my colleague here, the National Science Foundation Director France Cordova. Dr. Cordova has been at the agency's helm for almost a year now and the board is very appreciative and impressed by her leadership. From day one she has worked to ensure that the NSF supports and will be able to continue to support the strongest portfolio of discovery research in the world. She attends to both processes and to people embracing the Foundation's efforts to enhance transparency and accountability and strengthen its workforce. And Dr. Cordova is a terrific ambassador, as many of you know, for the agency connecting with other nations and scientists across all fields so that NSF can achieve its mission in advancing the frontiers of science.    Chairwoman Comstock, this morning on behalf of my 24 colleagues on the National Science Board, the science and engineering education communities which I represent as well, I would like to thank Members of the Subcommittee for their long-standing support of the NSF. The board takes very seriously our shared responsibility to provide strong governance and proper stewardship of this critical taxpayer investment.    As you know, NSF is the only agency that supports fundamental science and engineering research across all fields advancing the national interest by enabling scientific breakthroughs and the next generation of scientists and engineers. At the core, NSF is simple. We fund the best ideas, proposed and evaluated by scientists and engineers throughout the country, and we do this in fact relying on a lean, dedicated workforce that is supplemented by rotating experts and volunteers and volunteer reviewers. This approach has delivered enormous value to the U.S. taxpayer and become part of the well-known international gold standard, as we like to say, that the Foundation has always worked to both protect and improve.    NSF discovery science exists at the core of much larger national science and technology ecosystem. The early-stage research that NSF drives lays the foundation for the application-oriented science pursued by other agencies and the technological innovations developed by our nation's businesses. For example, ten years ago NSF invested in research on how to design and build a secure cyber infrastructure for the power grid. The DOE's Office of Electricity Delivery and Energy Reliability and the Department of Homeland Security have carried this research forward, and thanks to these successive investments, today, the trustworthy cyber infrastructure for the power grid project is collaborating with national labs and utility sectors to improve the design security, safety, and resiliency of the U.S. power grid.    We are always looking to improve our processes, and as a result, NSF, as you know, the agency has implemented new policies to begin and to better communicate how awards serve the national interest, how management of the NSF's large facilities is--are managed as well, and the Board and the Director planned a joint commission, an external independent review, to look at how NSF manages its cooperative agreements and to explore areas where they might make improvements to our procedures and processes.    The National Science Foundation's 2016 budget request reflects a strategic commitment to support the best basic research, economic growth, job creation through innovation, and a globally competitive science and engineering workforce. The Board believes that the proposal reflects the priorities set by the scientific community and a clear commitment to investments that will strengthen our nation over the long term.    I particularly ask for your support for funding of--full funding of the Agency Operations Award Management account. This request reflects the need to bring on additional staff to meet the requirements of the Digital Accountability and Transparency Act, cost effectively supporting high-quality, transparent federal spending information.    Like all Americans, the research community must make tough choices and set a priority, a challenge that my colleagues and I, along with the Director, have embraced. Even in times of severe budget constraints, the Board believes that the investment in our science and technology capabilities, including our S&amp;E workforce are essential to our Nation's long-term prosperity and security.    Our researcherships, observatories have led to revolutionary technologies, Nobel prizes, and even new states of matter, accomplishments that are a result of 65 years of a partnership among scientists, universities, NSF, and Congress.    Thank you for your leadership and for this opportunity to testify and I look forward to your questions.</t>
   </si>
   <si>
-    <t>May</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. May. Thank you for the opportunity to appear before you today to present the President's Fiscal Year 2016 budget request for the National Institute of Standards and Technology, NIST, whose mission is to promote U.S. innovation and industrial competitiveness by advancing measurement science standards and technology in ways that enhance our economic security and improve our quality of life. The budget reflects NIST's important role in establishing and addressing the Nation's top scientific and technical challenges that will indeed foster the innovation that creates jobs and strengthens the U.S. economy.    Specifically, the President has proposed a budget for NIST of $1.1 billion that we--as we have heard earlier. This is a $256 million increase in the 2015-enacted level. The budget will support U.S. manufacturers, aid our communities in recovering from disasters, and improve the ways that we connect to the world around us from online banking transactions to using technology to effectively and efficiently manage the smart grid to support the implementation of smart cities.    The largest portion of the requested increase, $194.4 million, focuses on U.S.-based manufacturing. This includes research in the NIST labs, support for the Hollings Marine--Hollings Manufacturing Extension Partnership, MEP, and a new request for the National Network for Manufacturing Innovation, or NNMI.    The NIST laboratories represent the core of our mission. Our researchers conduct world-class research that advances the Nation's technological infrastructure and helps U.S. companies continually improve their products and services. The basic research in the NIST laboratories has garnered five Nobel prizes over the last 18 years, a Kyoto Prize in material science, two National Medals of Science, and over 100 other national and international scientific awards and prizes.    NIST conducts more applied research in the standards area in areas of national and global importance including but not limited to cybersecurity, advanced communications, advanced manufacturing, advanced materials, and strengthening the science that underpins the forensic data and information used to make decisions in our criminal justice system.    The Fiscal Year 2016 budget request for--on Standards and Technology Research Services account is for $754.7 million. This is an increase of $79.2 million over the 2015 budget, and this is to grow our capacity in advanced manufacturing, cybersecurity and privacy for our nation's growing digital economy and for the fundamental measurement science and technology that is critical to U.S. innovation and improved quality of life.    The increase will also provide for continued operation of our world-class Center for Neutron Research and will strengthen our efforts to support the Nation's community disaster resilience programs.    Madame Chairwoman, NIST Industrial Technology Services appropriations supports our External Partnership programs designed to enhance American innovation and global competitiveness through partnerships at the state and local level. For ITS account the Fiscal Year 2016 request is for $306 million. That is a $167 million increase and we recognize that. $150 million of that would support the establishment of the NNMI that we have heard about envisioned to be a globally diverse set of regional hubs coordinated by NIST to accelerate the development and adoption of new cutting-edge manufacturing technologies.    The major portion of this amount is to establish two manufacturing innovation institutes to address the advanced manufacturing needs identified by industry. The eight institutes that have been identified to date are focused on U.S. Government agency needs, namely those of the DOD and the DOE. The ITS report also supports an $11 million increase--$11 million to increase the ability of our MEP centers to service small, rural, and young companies.    Our construction budget request is for $59 million. It represents an $8.7 million over 2015. Simply put, the aging and deteriorating buildings and infrastructure on our two campuses are beginning to threaten our ability to accomplish our mission.</t>
   </si>
   <si>
@@ -226,9 +208,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Madam Chair, and welcome to all of our panelists. The information feed is awesome.    I represent the capital region of New York, which has been dubbed by many to be one of the strongest hubs of growth--job growth in the clean energy innovation high tech economy. And with that we have great organizations like Rensselaer Polytechnic Institute and the corporate headquarters of GE with a lot of their innovation that they are incorporating, and the Polytechnic Institute. So my desire is to continue to build the foundations to further underpin that regional economy and certainly the Nation's economy with this growth that is so important.    By the two agencies that you speak for today, I am really impressed by the work that you do. So my question is--my focus is on the National Network for Manufacturing Innovation, the NNMI effort. Dr. May, can you discuss the level of demand for additional institutes under NNMI and what area of focus do you envision for those future institutes?</t>
   </si>
   <si>
@@ -283,9 +262,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. [Presiding.] Thank you, Mr. Tonko.    I now recognize myself for five minutes for questions.    Dr. Cordova, at one point the National Science Foundation had over $1 billion in expired grant money. Is that still the case?</t>
   </si>
   <si>
@@ -349,9 +325,6 @@
     <t>412524</t>
   </si>
   <si>
-    <t>Elizabeth H. Esty</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Esty. Thank you very much. I want to thank the Chairman and Ranking Member for today's hearing and to the three of you for the tremendous work you are doing every day and for being so informative for us and ensuring that our country maintains its position as the leader in research and development really for the world.    Dr. Cordova, you had spoken about NSF's risk and resilience initiative so I want to hit two--your topics 3 and 4, risk and resilience and STEM education. So starting with the first one, living in Connecticut as I do and we are seeing the effects--still seeing some of the effects from Superstorm Sandy and Hurricane Irene. We are acutely aware of the impact that it is having on our economy as we see more and more extreme weather events and we are seeing it again with subzero temperatures almost into March now. Could you speak a little bit further about what NSF's goals are in focusing on risk and resilience; and as a follow-up, as someone who serves on the Transportation Infrastructure Committee where we are also looking at these issues, can you let us know whether you will be working with other agencies, including particularly FEMA and Department of Transportation as part of these initiatives?</t>
   </si>
   <si>
@@ -373,9 +346,6 @@
     <t>412501</t>
   </si>
   <si>
-    <t>Suzanne Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman.    Dr. Cordova, welcome back to the Committee.</t>
   </si>
   <si>
@@ -413,9 +383,6 @@
   </si>
   <si>
     <t>412600</t>
-  </si>
-  <si>
-    <t>Katherine M. Clark</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Mr. Chairman. And thank you to all the panelists for being here today.    I am extremely lucky to represent the 5th District of Massachusetts, which is really a center of life sciences, biotech, and it is not only an economic engine for Massachusetts and for the country but it is also, as I--a very personal effect on the research that you do and sponsor. As I heard one dad say, a rare disease is only rare until it affects your child. And the difference is that you are making not only in jobs and the economy in Massachusetts and across this country but also in the real effect on people's lives.    And people do not come to my district for the weather. In fact, when Dr. Cordova was welcoming back my colleague from Antarctica, I thought you had mixed us up.    But I am concerned. They come to Boston because we have incredible universities and we have incredible institutions doing research. That is why they come and that is why keeping that innovation pipeline is so critical. But there is cynicism and there is criticism of much of the work that you are doing. And so I am very interested if any of you can tell me a little bit more about the STAR METRICS program and how you are proceeding in being able to put real dollars and really track the impact of the investment and research that is going forward.</t>
@@ -856,11 +823,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -880,13 +845,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -906,13 +869,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -932,13 +893,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -958,13 +917,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -984,13 +941,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1010,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1036,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1062,13 +1013,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1088,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1114,13 +1061,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1142,11 +1087,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1166,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1194,11 +1135,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1218,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1246,11 +1183,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1270,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1296,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1322,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1348,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1374,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1400,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1426,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1452,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1478,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1504,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1530,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1556,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1582,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1608,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1634,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1660,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1686,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1712,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1738,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1764,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1790,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1816,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1842,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1868,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1894,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1920,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1946,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1972,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1998,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2024,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2050,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2076,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2102,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2128,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
-      </c>
-      <c r="G51" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2154,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2180,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G53" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2206,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2232,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
-      </c>
-      <c r="G55" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2258,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2284,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
         <v>70</v>
-      </c>
-      <c r="H57" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2310,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2336,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2362,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2388,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
-      </c>
-      <c r="G61" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2414,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2440,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>69</v>
-      </c>
-      <c r="G63" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2466,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2492,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>69</v>
-      </c>
-      <c r="G65" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2518,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2544,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>69</v>
-      </c>
-      <c r="G67" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2570,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G68" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2596,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2622,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
-      </c>
-      <c r="G70" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2648,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2674,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
-      </c>
-      <c r="G72" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2700,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2726,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
         <v>88</v>
-      </c>
-      <c r="G74" t="s">
-        <v>89</v>
-      </c>
-      <c r="H74" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2752,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2778,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2804,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2830,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2856,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2882,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G80" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2908,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2934,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G82" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2960,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2986,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>88</v>
-      </c>
-      <c r="G84" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3012,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3038,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>88</v>
-      </c>
-      <c r="G86" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3064,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3090,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>88</v>
-      </c>
-      <c r="G88" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3116,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>110</v>
-      </c>
-      <c r="G89" t="s">
-        <v>111</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3142,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3168,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>110</v>
-      </c>
-      <c r="G91" t="s">
-        <v>111</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3194,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3220,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>110</v>
-      </c>
-      <c r="G93" t="s">
-        <v>111</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3246,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>88</v>
-      </c>
-      <c r="G94" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3272,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
-      </c>
-      <c r="G95" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3298,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3324,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
-      </c>
-      <c r="G97" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3350,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3376,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
-      </c>
-      <c r="G99" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3402,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3428,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>118</v>
-      </c>
-      <c r="G101" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3454,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3480,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
+        <v>109</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
         <v>118</v>
-      </c>
-      <c r="G103" t="s">
-        <v>119</v>
-      </c>
-      <c r="H103" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3506,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3532,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>118</v>
-      </c>
-      <c r="G105" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3558,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>88</v>
-      </c>
-      <c r="G106" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3584,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>132</v>
-      </c>
-      <c r="G107" t="s">
-        <v>133</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3610,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3636,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>132</v>
-      </c>
-      <c r="G109" t="s">
-        <v>133</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3662,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3688,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>132</v>
-      </c>
-      <c r="G111" t="s">
-        <v>133</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3714,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3740,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>88</v>
-      </c>
-      <c r="G113" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3766,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3792,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>132</v>
-      </c>
-      <c r="G115" t="s">
-        <v>133</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3818,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3844,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>132</v>
-      </c>
-      <c r="G117" t="s">
+        <v>122</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
         <v>133</v>
-      </c>
-      <c r="H117" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3870,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>88</v>
-      </c>
-      <c r="G118" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3898,11 +3631,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3922,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>88</v>
-      </c>
-      <c r="G120" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93886.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93886.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,30 +55,57 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Lipinski</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Madam Chairwoman, and welcome to our distinguished panel here today.    I am pleased we are having this hearing to review the Fiscal Year 2016 budget proposals for the National Science Foundation and the National Institute for--of Standards and Technology.    There is a lot to cover when we discuss these two critical agencies, and I believe that we would have been better able to examine these budgets with two separate hearings but I am hopeful that we can give a thoughtful and thorough consideration here today.    As many of you know, I have said many times from when I first came here ten years ago how NSF and the role that this Committee plays in overseeing NSF is one of the big reasons I wanted to serve on this Committee when I got to Congress, and I want to thank both NSF and NIST for the great work that you are doing.    The National Science Foundation is the only agency in our government that supports fundamental research across all fields of science and engineering. NSF has always been the primary source of federal support in a variety of fields, including the social and economic sciences. As other agencies such as DARPA and NIH have increasingly shifted to a more mission-focused and translational research, NSF has become the primary source of support for many more fields.    $7 billion sounds like a lot of money and of course it is. However, given the breadth and depth of our nation's scientific talent and their capacity to transform the world through scientific and technological breakthroughs, $7 billion still leaves a lot of excellent ideas on the cutting room floor. NSF is requesting a 5.2 percent increase in its budget for Fiscal Year 2016, which I believe is fully justified and I am going to strongly support.    I would like to highlight a couple of items in the NSF request. I am pleased to see the increase for the very successful Innovation Corps, also known as the I-Corps program. If my newer colleagues are unfamiliar with I-Corps, I urge them to get a briefing from NSF.    Being from Chicago, I am also interested in the INFEWS Initiative and the positive impacts research in that area could have on water quality in the Great Lakes.    Today, we are also looking at the budget request for NIST, the most important, least-known agency in our government, which has a budget of less than $900 million. NIST has always been the world's premier measurement science and standards organization. In recent years, policymakers in Congress and the White House have called on NIST to take on leadership roles in an increasing number of critical areas, including cybersecurity, disaster resilience, forensic science, and advanced manufacturing. On the one hand it is a great compliment to NIST that we entrust them with these responsibilities and they continue to live up to our expectations. On the other hand, many of these responsibilities have been making it difficult for the agency to carry out its mission.    NIST is requesting a 30 percent increase but over a relatively small base. I fully support NIST's request in light of all the increased responsibilities.    I hope that all my colleagues will join me in urging full funding for NIST laboratories and construction budget. NIST infrastructure is 40 to 50 years old and much of it is crumbling. As they face the same wave of retirements that many of our agencies face, NIST is struggling to attract top new talent. If we do not fully fund this agency, we may be compromising its ability to remain the world's leader in measurement science and standards development. This would be a heavy blow to our economic growth and security given the importance of NIST's work.    Before I close, I want to say a few words about legislation I expect will come before this Committee soon in regards to reauthorizing both of these agencies. Last year, the agencies were not given the opportunity to testify on the reauthorizing legislation before we marked it up. I am sure there will be some questions from both sides today that will be relevant to any new reauthorization bill, but it is important to allow these agencies to testify again once legislation has been introduced. This will allow our Subcommittee and full Committee to better understand the impact of any proposals for consequential policy changes.    I look forward to this morning's testimony and discussion and I yield back.</t>
   </si>
   <si>
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Madam Chair, and let me observe and state the obvious at the beginning that we have an excellent panel with us today and we look forward to hearing from them shortly.    The National Science Foundation and the National Institute of Standards and Technology support fundamental scientific research that is critical to American innovation and competitiveness. Our challenge is to set funding priorities that ensure America remains first in the global marketplace of ideas and products, without misusing the American people's hard-earned tax dollars.    For example, why does the Administration increase funding for the Social, Behavioral and Economic Science Directorate by over seven percent while proposing an average of less than four percent for the Biology, Computer Science, Engineering and Mathematical and Physical Science Directorates?    But I do want to emphasize and mention and applaud the steps taken by NSF to improve transparency and accountability. NSF's new policy acknowledges the need for NSF to communicate clearly and in nontechnical terms when the agency describes the research projects it funds. The new policy also emphasizes that the title and abstract for each funded grant should act as the public justification for NSF funding. It should explain how the project serves the national interest and is consistent with the NSF mission, as set forth in the 1950 legislation that created the Foundation. And I understand Dr. Cordova presented this at the November National Science Board meeting and received positive comments.    It appears the new NSF policy parallels a significant provision of the FIRST Act approved by this Committee last fall, a requirement that NSF publish a justification for each funded grant that sets forth the project's scientific merit and national interest. The reference to the 1950 original enabling legislation and its NSF mission statement is consistent with the FIRST Act, too.    NIST does valuable, important work as well, which includes maintaining industrial and technical standards and managing cybersecurity guidelines for federal agencies. But the proposed 30 percent increase in the NIST budget for next year is unrealistic.    Although there are a number of areas proposed for very large increases, the $150 million for the National Network of Manufacturing Innovation program is of particular concern. Last year, with strong bipartisan support, this Committee, the full House, and the Senate approved H.R. 2996, the Revitalize American Manufacturing Innovation Act, or RAMI. This bill authorized about $5 million per year for NNMI from NIST with the bulk of the program funding to be transferred from the Office of Energy Efficiency and Renewable Energy budget at the Energy Department's Office of Science. I don't know why the Administration is ignoring the duly enacted RAMI Act.    Other than that, I look forward to hearing from our witnesses today on the subject that I mentioned above and yield back.</t>
   </si>
   <si>
     <t>400204</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much, Madam Chairwoman, for holding this important hearing, and I welcome the National Science Foundation and the National Institute of Standards and Technology witnesses here. Both are agencies that are central to the federal role in advancing science, promoting innovation, and creating a more prosperous nation.    I look forward to hearing from the distinguished witnesses before us this morning. I only wish they could each have had in their own hearing because there are so many important topics to discuss for each of the agencies.    I am pleased with the budget request for both NSF and NIST. I hope Congress will have the wisdom to fully fund both requests. There are many worthy programs across the government and we cannot fund everything. However, I believe that funding science and innovation should be an easy choice, for this is about our future, and even more important, it is about our children's future.    That said, there are a few programs in the budget request that I would like to highlight. First, I am pleased to see NIST and NSF's increased investments in engineered biology. Many of the experts believe that biology will be the driver of economic prosperity in the 21st century, as physics was in the 20th century. Mr. Sensenbrenner joined me in introducing the Engineering Biology Act of 2015, which would create a framework for coordinated federal initiative in engineering biology. I hope we have the opportunity to move the bill this Congress.    Next, I am happy to see NIST leadership in the area of forensic science and standards. The partnership between NIST and the Department of Justice must continue to recognize NIST's critical role in developing technical standards for forensic evidence. The justice system must be just for all, including the wrongfully accused. I would be reintroducing my Forensic Science and Standards Act soon and I welcome my colleagues to cosponsor the legislation with me.    Also, while public access is not addressed in the budget request directly, it is a timely issue. I am pleased to see that several agencies, including NIST, have released their public access plans for federally funded research, a process that this Committee started back in the year 2009. Dr. Cordova, I understand you will still be negotiating with OSTP on your plan and I encourage you to resolve that as soon as possible.    Let me conclude with a few words about the debates in this Committee regarding our support for different fields of science and for merit review. We all have beliefs we would hold very strongly whether or not there is evidence to support them. Some of my colleagues believe very strongly that some fields of science are less valuable than other fields and that some grants are less worthy than other brands. Personally, I do not presume to have the expertise to make that determination. I trust the merit review process, and I trust NSF to make those decisions. The experts before us today will have an opportunity to educate us as to why we must invest in all STEM fields, and why it is so important to keep the merit review process free from political review. I just hope that all of my colleagues truly listen and consider what our witnesses have to say.    I very much look forward to the testimony, and with that, yield back. Thank you.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Cordova</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Cordova. Chairman Smith, Ranking Member Johnson, Madam Chairwoman, Ranking Member Lipinski, and Members, I am very pleased to be with you today to present the National Science Foundation's Fiscal Year 2016 budget request.    I would like to begin my remarks with three short stories about breakthroughs in NSF-funded science in 2014. Dr. Danielle Bassett of the University of Pennsylvania was awarded a MacArthur Fellowship, often called the ``genius grant,'' for her NSF-sponsored work on how different regions of the brain interact. She uses MRI technology and computer algorithms in her research, which may ultimately lead to what she calls ``personalized therapeutics for rehabilitation and treatment of brain injury and psychiatric disorders.'' Her work may have application to Alzheimer's, schizophrenia, autism, epilepsy, and Parkinson's disease.    Dr. Perena Gouma, material science research at SUNY Stony Brook, has created a novel nanogrid that when activated by sunlight can break down oil from a spill. She was the first scientist to receive an I-Corps grant and has started a company based on patents from this original research.    Dr. Jennifer Doudna of UC Berkeley was awarded a Breakthrough Prize by leading technology companies. Her inspiration, she says, was her father, a literature professor who introduced her to cryptograms. Today, she has decrypted bacterial immunity, and with that discovery enabled the development of a precision genome editing tool, which could be used to treat diseases like cancer and AIDS, as well as hereditary disorders. At a recent session where I joined her to talk about future breakthroughs, she spoke of her experiences with K through 12 students. There is a scientist in every child, she said.    These young women scientists and their game-changing discoveries were all funded by NSF. They were all drawn into science by family, friends, or teachers at a young age. Their research is truly innovative and interdisciplinary and shows a commitment to the STEM workforce.    NSF has a long history of funding research that leads to breakthroughs in science and engineering. These breakthroughs excite the next generation and generate promise for the future. NSF has funded 214 Nobel Prize winners, including the most recent winners, W.E. Moerner in chemistry and Jean Tirole in economics.    This past year, the NSF-funded supercomputer called Stampede at UT Austin has been used to explore a new method of DNA sequencing, which could make getting one's genome affordable. The new telescope in Chile called ALMA produced an iconic image of a proto-solar system forming around a relatively nearby star in our galaxy. This telescope is managed by the National Radio Astronomy Observatory located in Virginia.    In addition, the NSF-funded Blue Waters supercomputer at the University of Illinois Urbana-Champaign is being used by researchers from the Mayo Clinic to understand gene expression in the brain with an eye to better understanding Alzheimer's disease.    How do these stories and examples inform NSF's future investments? In Fiscal Year 2016 NSF proposes to uphold the essential approach that it has pursued for more than 60 years, to invest in discovery research and education in science and engineering, and by doing so, to address complex challenges facing the Nation for our Nation.    In Fiscal Year 2016 there are four NSF-wide investments that address issues of major scientific national and societal importance. The first focus is on understanding the brain and it will offer novel insights into how cognitive abilities develop and can be maintained and improved throughout people's lives. The second is focused on the discovery science needed to understand the complicated and interconnected food-energy-water nexus. The third area of emphasis in 2016 is risk and resilience. It focuses on the advances needed to address pressing challenges associated with extreme events and how we can be prepared for them. The fourth is to develop an integrated national effort to increase the participation of young people who have been traditionally underserved and/or underrepresented in the STEM enterprise.    What we are presenting today is therefore a robust investment in discovery. The total budget request is for $7.7 billion, a 5.2 percent increase above the current level. This request builds on the foundation strength in funding breakthroughs and discoveries across a broad range of fields and in educating the STEM workforce.    My written remarks provide additional detail on these investments.    Most of all, it continues NSF's tradition of funding great ideas and growing great talent and ensures that NSF remains the place where discoveries began.    Thank you very much, Madam Chairwoman and Members of the Subcommittee. Thank you for your support of the National Science Foundation. I look forward to working with you as together we advance science in the national interest.</t>
   </si>
   <si>
+    <t>Arvizu</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Arvizu. Thank you.    Full Committee Chair, Chairman Smith, Ranking Member Johnson, Subcommittee Chairwoman Comstock, and Ranking Member Lipinski, and Members of the Subcommittee, I appreciate this opportunity to speak with you today in support of the National Science Foundation's fiscal 2016 budget request.    I am Dan Arvizu, the Chairman of the Science Board, and in my day job I am the Director and the Chief Executive at the Department of Energy's National Renewable Energy Laboratory. The National Science Board, as you know, is the governing board of the National Science Foundation and an independent advisor to both Congress and the President.    To begin, I would like to take a few moments to comment on my colleague here, the National Science Foundation Director France Cordova. Dr. Cordova has been at the agency's helm for almost a year now and the board is very appreciative and impressed by her leadership. From day one she has worked to ensure that the NSF supports and will be able to continue to support the strongest portfolio of discovery research in the world. She attends to both processes and to people embracing the Foundation's efforts to enhance transparency and accountability and strengthen its workforce. And Dr. Cordova is a terrific ambassador, as many of you know, for the agency connecting with other nations and scientists across all fields so that NSF can achieve its mission in advancing the frontiers of science.    Chairwoman Comstock, this morning on behalf of my 24 colleagues on the National Science Board, the science and engineering education communities which I represent as well, I would like to thank Members of the Subcommittee for their long-standing support of the NSF. The board takes very seriously our shared responsibility to provide strong governance and proper stewardship of this critical taxpayer investment.    As you know, NSF is the only agency that supports fundamental science and engineering research across all fields advancing the national interest by enabling scientific breakthroughs and the next generation of scientists and engineers. At the core, NSF is simple. We fund the best ideas, proposed and evaluated by scientists and engineers throughout the country, and we do this in fact relying on a lean, dedicated workforce that is supplemented by rotating experts and volunteers and volunteer reviewers. This approach has delivered enormous value to the U.S. taxpayer and become part of the well-known international gold standard, as we like to say, that the Foundation has always worked to both protect and improve.    NSF discovery science exists at the core of much larger national science and technology ecosystem. The early-stage research that NSF drives lays the foundation for the application-oriented science pursued by other agencies and the technological innovations developed by our nation's businesses. For example, ten years ago NSF invested in research on how to design and build a secure cyber infrastructure for the power grid. The DOE's Office of Electricity Delivery and Energy Reliability and the Department of Homeland Security have carried this research forward, and thanks to these successive investments, today, the trustworthy cyber infrastructure for the power grid project is collaborating with national labs and utility sectors to improve the design security, safety, and resiliency of the U.S. power grid.    We are always looking to improve our processes, and as a result, NSF, as you know, the agency has implemented new policies to begin and to better communicate how awards serve the national interest, how management of the NSF's large facilities is--are managed as well, and the Board and the Director planned a joint commission, an external independent review, to look at how NSF manages its cooperative agreements and to explore areas where they might make improvements to our procedures and processes.    The National Science Foundation's 2016 budget request reflects a strategic commitment to support the best basic research, economic growth, job creation through innovation, and a globally competitive science and engineering workforce. The Board believes that the proposal reflects the priorities set by the scientific community and a clear commitment to investments that will strengthen our nation over the long term.    I particularly ask for your support for funding of--full funding of the Agency Operations Award Management account. This request reflects the need to bring on additional staff to meet the requirements of the Digital Accountability and Transparency Act, cost effectively supporting high-quality, transparent federal spending information.    Like all Americans, the research community must make tough choices and set a priority, a challenge that my colleagues and I, along with the Director, have embraced. Even in times of severe budget constraints, the Board believes that the investment in our science and technology capabilities, including our S&amp;E workforce are essential to our Nation's long-term prosperity and security.    Our researcherships, observatories have led to revolutionary technologies, Nobel prizes, and even new states of matter, accomplishments that are a result of 65 years of a partnership among scientists, universities, NSF, and Congress.    Thank you for your leadership and for this opportunity to testify and I look forward to your questions.</t>
   </si>
   <si>
+    <t>May</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. May. Thank you for the opportunity to appear before you today to present the President's Fiscal Year 2016 budget request for the National Institute of Standards and Technology, NIST, whose mission is to promote U.S. innovation and industrial competitiveness by advancing measurement science standards and technology in ways that enhance our economic security and improve our quality of life. The budget reflects NIST's important role in establishing and addressing the Nation's top scientific and technical challenges that will indeed foster the innovation that creates jobs and strengthens the U.S. economy.    Specifically, the President has proposed a budget for NIST of $1.1 billion that we--as we have heard earlier. This is a $256 million increase in the 2015-enacted level. The budget will support U.S. manufacturers, aid our communities in recovering from disasters, and improve the ways that we connect to the world around us from online banking transactions to using technology to effectively and efficiently manage the smart grid to support the implementation of smart cities.    The largest portion of the requested increase, $194.4 million, focuses on U.S.-based manufacturing. This includes research in the NIST labs, support for the Hollings Marine--Hollings Manufacturing Extension Partnership, MEP, and a new request for the National Network for Manufacturing Innovation, or NNMI.    The NIST laboratories represent the core of our mission. Our researchers conduct world-class research that advances the Nation's technological infrastructure and helps U.S. companies continually improve their products and services. The basic research in the NIST laboratories has garnered five Nobel prizes over the last 18 years, a Kyoto Prize in material science, two National Medals of Science, and over 100 other national and international scientific awards and prizes.    NIST conducts more applied research in the standards area in areas of national and global importance including but not limited to cybersecurity, advanced communications, advanced manufacturing, advanced materials, and strengthening the science that underpins the forensic data and information used to make decisions in our criminal justice system.    The Fiscal Year 2016 budget request for--on Standards and Technology Research Services account is for $754.7 million. This is an increase of $79.2 million over the 2015 budget, and this is to grow our capacity in advanced manufacturing, cybersecurity and privacy for our nation's growing digital economy and for the fundamental measurement science and technology that is critical to U.S. innovation and improved quality of life.    The increase will also provide for continued operation of our world-class Center for Neutron Research and will strengthen our efforts to support the Nation's community disaster resilience programs.    Madame Chairwoman, NIST Industrial Technology Services appropriations supports our External Partnership programs designed to enhance American innovation and global competitiveness through partnerships at the state and local level. For ITS account the Fiscal Year 2016 request is for $306 million. That is a $167 million increase and we recognize that. $150 million of that would support the establishment of the NNMI that we have heard about envisioned to be a globally diverse set of regional hubs coordinated by NIST to accelerate the development and adoption of new cutting-edge manufacturing technologies.    The major portion of this amount is to establish two manufacturing innovation institutes to address the advanced manufacturing needs identified by industry. The eight institutes that have been identified to date are focused on U.S. Government agency needs, namely those of the DOD and the DOE. The ITS report also supports an $11 million increase--$11 million to increase the ability of our MEP centers to service small, rural, and young companies.    Our construction budget request is for $59 million. It represents an $8.7 million over 2015. Simply put, the aging and deteriorating buildings and infrastructure on our two campuses are beginning to threaten our ability to accomplish our mission.</t>
   </si>
   <si>
@@ -208,6 +238,12 @@
     <t>412319</t>
   </si>
   <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Madam Chair, and welcome to all of our panelists. The information feed is awesome.    I represent the capital region of New York, which has been dubbed by many to be one of the strongest hubs of growth--job growth in the clean energy innovation high tech economy. And with that we have great organizations like Rensselaer Polytechnic Institute and the corporate headquarters of GE with a lot of their innovation that they are incorporating, and the Polytechnic Institute. So my desire is to continue to build the foundations to further underpin that regional economy and certainly the Nation's economy with this growth that is so important.    By the two agencies that you speak for today, I am really impressed by the work that you do. So my question is--my focus is on the National Network for Manufacturing Innovation, the NNMI effort. Dr. May, can you discuss the level of demand for additional institutes under NNMI and what area of focus do you envision for those future institutes?</t>
   </si>
   <si>
@@ -262,6 +298,12 @@
     <t>412608</t>
   </si>
   <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Palmer. [Presiding.] Thank you, Mr. Tonko.    I now recognize myself for five minutes for questions.    Dr. Cordova, at one point the National Science Foundation had over $1 billion in expired grant money. Is that still the case?</t>
   </si>
   <si>
@@ -325,6 +367,12 @@
     <t>412524</t>
   </si>
   <si>
+    <t>Esty</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Esty. Thank you very much. I want to thank the Chairman and Ranking Member for today's hearing and to the three of you for the tremendous work you are doing every day and for being so informative for us and ensuring that our country maintains its position as the leader in research and development really for the world.    Dr. Cordova, you had spoken about NSF's risk and resilience initiative so I want to hit two--your topics 3 and 4, risk and resilience and STEM education. So starting with the first one, living in Connecticut as I do and we are seeing the effects--still seeing some of the effects from Superstorm Sandy and Hurricane Irene. We are acutely aware of the impact that it is having on our economy as we see more and more extreme weather events and we are seeing it again with subzero temperatures almost into March now. Could you speak a little bit further about what NSF's goals are in focusing on risk and resilience; and as a follow-up, as someone who serves on the Transportation Infrastructure Committee where we are also looking at these issues, can you let us know whether you will be working with other agencies, including particularly FEMA and Department of Transportation as part of these initiatives?</t>
   </si>
   <si>
@@ -346,6 +394,12 @@
     <t>412501</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman.    Dr. Cordova, welcome back to the Committee.</t>
   </si>
   <si>
@@ -383,6 +437,12 @@
   </si>
   <si>
     <t>412600</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Katherine</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Mr. Chairman. And thank you to all the panelists for being here today.    I am extremely lucky to represent the 5th District of Massachusetts, which is really a center of life sciences, biotech, and it is not only an economic engine for Massachusetts and for the country but it is also, as I--a very personal effect on the research that you do and sponsor. As I heard one dad say, a rare disease is only rare until it affects your child. And the difference is that you are making not only in jobs and the economy in Massachusetts and across this country but also in the real effect on people's lives.    And people do not come to my district for the weather. In fact, when Dr. Cordova was welcoming back my colleague from Antarctica, I thought you had mixed us up.    But I am concerned. They come to Boston because we have incredible universities and we have incredible institutions doing research. That is why they come and that is why keeping that innovation pipeline is so critical. But there is cynicism and there is criticism of much of the work that you are doing. And so I am very interested if any of you can tell me a little bit more about the STAR METRICS program and how you are proceeding in being able to put real dollars and really track the impact of the investment and research that is going forward.</t>
@@ -773,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,7 +841,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,2861 +863,3347 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
         <v>17</v>
       </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
       <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G51" t="s">
+        <v>74</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G55" t="s">
+        <v>74</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G59" t="s">
+        <v>74</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G61" t="s">
+        <v>74</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G63" t="s">
+        <v>74</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G65" t="s">
+        <v>74</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G67" t="s">
+        <v>74</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G68" t="s">
+        <v>94</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G70" t="s">
+        <v>94</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G72" t="s">
+        <v>94</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G74" t="s">
+        <v>94</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G76" t="s">
+        <v>94</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G78" t="s">
+        <v>94</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>81</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G80" t="s">
+        <v>94</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>81</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G82" t="s">
+        <v>94</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>81</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G84" t="s">
+        <v>94</v>
+      </c>
       <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s">
+        <v>25</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>81</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G86" t="s">
+        <v>94</v>
+      </c>
       <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s">
+        <v>25</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>81</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G88" t="s">
+        <v>94</v>
+      </c>
       <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>102</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G89" t="s">
+        <v>117</v>
+      </c>
       <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>102</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G91" t="s">
+        <v>117</v>
+      </c>
       <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s">
+        <v>25</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>102</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G93" t="s">
+        <v>117</v>
+      </c>
       <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>81</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G94" t="s">
+        <v>94</v>
+      </c>
       <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>109</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G95" t="s">
+        <v>126</v>
+      </c>
       <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s">
+        <v>25</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>109</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G97" t="s">
+        <v>126</v>
+      </c>
       <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s">
+        <v>25</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>109</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G99" t="s">
+        <v>126</v>
+      </c>
       <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s">
+        <v>25</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>109</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G101" t="s">
+        <v>126</v>
+      </c>
       <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s">
+        <v>25</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>109</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G103" t="s">
+        <v>126</v>
+      </c>
       <c r="H103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>109</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G105" t="s">
+        <v>126</v>
+      </c>
       <c r="H105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>81</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G106" t="s">
+        <v>94</v>
+      </c>
       <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>122</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G107" t="s">
+        <v>141</v>
+      </c>
       <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s">
+        <v>25</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>122</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G109" t="s">
+        <v>141</v>
+      </c>
       <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I109" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s">
+        <v>25</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>122</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G111" t="s">
+        <v>141</v>
+      </c>
       <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>81</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G113" t="s">
+        <v>94</v>
+      </c>
       <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s">
+        <v>29</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>122</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G115" t="s">
+        <v>141</v>
+      </c>
       <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s">
+        <v>29</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>122</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G117" t="s">
+        <v>141</v>
+      </c>
       <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>81</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G118" t="s">
+        <v>94</v>
+      </c>
       <c r="H118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>81</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G120" t="s">
+        <v>94</v>
+      </c>
       <c r="H120" t="s">
-        <v>136</v>
+        <v>95</v>
+      </c>
+      <c r="I120" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93886.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93886.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Lipinski</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -236,6 +245,9 @@
   </si>
   <si>
     <t>412319</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Tonko</t>
@@ -833,7 +845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,7 +853,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,3344 +878,3592 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>29</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>29</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>29</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G61" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s">
-        <v>25</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G68" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s">
-        <v>25</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G70" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G72" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s">
-        <v>25</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G74" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G76" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G78" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H78" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G80" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H80" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>25</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G82" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H82" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>25</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G84" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H84" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s">
-        <v>25</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G86" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H86" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s">
-        <v>25</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G88" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H88" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I88" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G89" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="H89" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I89" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G91" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I91" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G93" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I93" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G94" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H94" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I94" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G95" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="H95" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I95" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G97" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="H97" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I97" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>25</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G99" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I99" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G101" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s">
-        <v>25</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>28</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G103" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I103" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>32</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G105" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G106" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H106" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G107" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="H107" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" t="s">
-        <v>25</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>28</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G109" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="H109" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I109" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J109" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" t="s">
-        <v>25</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>28</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G111" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="H111" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I111" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" t="s">
-        <v>29</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>32</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G113" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H113" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I113" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" t="s">
-        <v>29</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>32</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G115" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I115" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" t="s">
-        <v>29</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>32</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G117" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I117" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G118" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H118" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I118" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G120" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H120" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I120" t="s">
-        <v>156</v>
+        <v>99</v>
+      </c>
+      <c r="J120" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
